--- a/biology/Médecine/Henri_Codet/Henri_Codet.xlsx
+++ b/biology/Médecine/Henri_Codet/Henri_Codet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Codet, né le 1er juillet 1890 et mort d'un accident à Génicourt le 19 décembre 1939[1], est un psychanalyste et psychiatre, analysé par Adrien Borel, c'est l'un des premiers membres de la Société psychanalytique de Paris. Il a aussi collaboré à la société et revue L'Évolution psychiatrique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Codet, né le 1er juillet 1890 et mort d'un accident à Génicourt le 19 décembre 1939, est un psychanalyste et psychiatre, analysé par Adrien Borel, c'est l'un des premiers membres de la Société psychanalytique de Paris. Il a aussi collaboré à la société et revue L'Évolution psychiatrique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Henri Codet, Essai sur le collectionnisme (Thèse pour le doctorat en médecine), Paris, Jouve &amp; Cie, 1921, 102 p.[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Henri Codet, Essai sur le collectionnisme (Thèse pour le doctorat en médecine), Paris, Jouve &amp; Cie, 1921, 102 p.</t>
         </is>
       </c>
     </row>
